--- a/src/main/webapp/book/numberFormat.xlsx
+++ b/src/main/webapp/book/numberFormat.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hawk/Documents/workspace/java-client-demo/src/main/webapp/book/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hawk/Documents/workspace/java-client-demo/src/main/webapp/book/demo/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20460"/>
+    <workbookView xWindow="33600" yWindow="460" windowWidth="33600" windowHeight="20460"/>
   </bookViews>
   <sheets>
     <sheet name="number format" sheetId="12" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>number</t>
   </si>
@@ -58,62 +58,72 @@
     <t>fraction</t>
   </si>
   <si>
-    <t>2013.4.12</t>
-  </si>
-  <si>
     <t>special (phone)</t>
   </si>
   <si>
     <t>time</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>custom</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0923123456</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="15">
-    <numFmt numFmtId="176" formatCode="&quot;NT$&quot;#,##0.00"/>
-    <numFmt numFmtId="177" formatCode="_-[$¥-411]* #,##0.00_-;\-[$¥-411]* #,##0.00_-;_-[$¥-411]* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="0.0%"/>
-    <numFmt numFmtId="179" formatCode="[&lt;=9999999]###\-####;\(0#\)\ ###\-####"/>
-    <numFmt numFmtId="180" formatCode="#,##0.00_ "/>
-    <numFmt numFmtId="181" formatCode="#,##0.00_ ;[Red]\-#,##0.00\ "/>
-    <numFmt numFmtId="182" formatCode="&quot;NT$&quot;#,##0.00;[Red]\-&quot;NT$&quot;#,##0.00"/>
-    <numFmt numFmtId="183" formatCode="#\ ???/???"/>
-    <numFmt numFmtId="184" formatCode="_([$€-2]\ * #,##0.00_);_([$€-2]\ * \(#,##0.00\);_([$€-2]\ * &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="185" formatCode="0.E+00"/>
-    <numFmt numFmtId="187" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-    <numFmt numFmtId="189" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-    <numFmt numFmtId="190" formatCode="h:mm:ss;@"/>
-    <numFmt numFmtId="191" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
-    <numFmt numFmtId="193" formatCode="00000\-0000"/>
+  <numFmts count="20">
+    <numFmt numFmtId="164" formatCode="&quot;NT$&quot;#,##0.00"/>
+    <numFmt numFmtId="165" formatCode="_-[$¥-411]* #,##0.00_-;\-[$¥-411]* #,##0.00_-;_-[$¥-411]* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="0.0%"/>
+    <numFmt numFmtId="167" formatCode="[&lt;=9999999]###\-####;\(0#\)\ ###\-####"/>
+    <numFmt numFmtId="169" formatCode="#,##0.00_ ;[Red]\-#,##0.00\ "/>
+    <numFmt numFmtId="170" formatCode="&quot;NT$&quot;#,##0.00;[Red]\-&quot;NT$&quot;#,##0.00"/>
+    <numFmt numFmtId="171" formatCode="#\ ???/???"/>
+    <numFmt numFmtId="172" formatCode="_([$€-2]\ * #,##0.00_);_([$€-2]\ * \(#,##0.00\);_([$€-2]\ * &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="173" formatCode="0.E+00"/>
+    <numFmt numFmtId="174" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="175" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="176" formatCode="h:mm:ss;@"/>
+    <numFmt numFmtId="177" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="178" formatCode="00000\-0000"/>
+    <numFmt numFmtId="179" formatCode="0.0000E+00"/>
+    <numFmt numFmtId="180" formatCode="[$-409]m/d/yy\ h:mm\ AM/PM;@"/>
+    <numFmt numFmtId="181" formatCode="0.000000%"/>
+    <numFmt numFmtId="182" formatCode="_(&quot;US$&quot;* #,##0.00_);_(&quot;US$&quot;* \(#,##0.00\);_(&quot;US$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="183" formatCode="上午/下午h&quot;時&quot;mm&quot;分&quot;ss&quot;秒&quot;"/>
+    <numFmt numFmtId="186" formatCode="0.000000000000000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="16"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="新細明體"/>
-      <family val="2"/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="3"/>
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
@@ -138,31 +148,34 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="13" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="40" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="184" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="185" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="187" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="189" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="190" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="191" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="193" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="40" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="172" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="174" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="13" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="171" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="173" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="180" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="181" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="182" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="183" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="186" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -475,168 +488,251 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.59765625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.59765625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.3984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.796875" customWidth="1"/>
+    <col min="1" max="1" width="29.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32" customWidth="1"/>
+    <col min="3" max="3" width="30" customWidth="1"/>
+    <col min="4" max="4" width="28.6640625" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.83203125" customWidth="1"/>
     <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A2" s="10">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+    </row>
+    <row r="2" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A2" s="26">
+        <v>9.1234567890123408</v>
+      </c>
+      <c r="B2" s="3">
+        <v>-1234.56</v>
+      </c>
+      <c r="C2" s="4">
+        <v>-1234.56</v>
+      </c>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
         <v>1234.56</v>
       </c>
-      <c r="B2" s="11">
+      <c r="B4" s="6">
         <v>-1234.56</v>
       </c>
-      <c r="C2" s="12">
-        <v>-1234.56</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A3" s="9" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A4" s="2">
-        <v>1234.56</v>
-      </c>
-      <c r="B4" s="13">
-        <v>-1234.56</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A5" s="9" t="s">
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A6" s="3">
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
         <v>1234</v>
       </c>
-      <c r="B6" s="15">
-        <v>1234</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A7" s="9" t="s">
+      <c r="B6" s="8">
+        <v>5678</v>
+      </c>
+      <c r="C6" s="24">
+        <v>5678</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A8" s="1">
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A8" s="9">
+        <v>43202</v>
+      </c>
+      <c r="B8" s="10">
+        <v>43202</v>
+      </c>
+      <c r="C8" s="11">
+        <v>43202</v>
+      </c>
+      <c r="D8" s="22">
+        <v>43202</v>
+      </c>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A10" s="12">
         <v>41376</v>
       </c>
-      <c r="B8" s="17">
-        <v>41376</v>
-      </c>
-      <c r="C8" s="20">
-        <v>41376</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A9" s="9" t="s">
+      <c r="B10" s="13">
+        <v>80808.006192129629</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A12" s="14">
+        <v>0.1234</v>
+      </c>
+      <c r="B12" s="23">
+        <v>0.12345678</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A14" s="15">
+        <v>0.48</v>
+      </c>
+      <c r="B14" s="16">
+        <v>0.48399999999999999</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A16" s="17">
+        <v>1000000000</v>
+      </c>
+      <c r="B16" s="21">
+        <v>1234000000</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+    </row>
+    <row r="18" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A18" s="18" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A10" s="18">
-        <v>41376</v>
-      </c>
-      <c r="B10" s="19">
-        <v>41376</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A11" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A12" s="4">
-        <v>0.1234</v>
-      </c>
-      <c r="B12" s="22">
-        <v>0.1234</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A13" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A14" s="5">
-        <v>0.48</v>
-      </c>
-      <c r="B14" s="14">
-        <v>0.48399999999999999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A15" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A16" s="16">
-        <v>1000000000</v>
-      </c>
-      <c r="B16" s="6">
-        <v>1000000000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A17" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A18" s="7" t="s">
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+    </row>
+    <row r="19" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A19" s="9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A20" s="21">
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+    </row>
+    <row r="20" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A20" s="19">
         <v>123456789</v>
       </c>
-      <c r="B20" s="8">
+      <c r="B20" s="20">
         <v>73504450</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A21" s="9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A22" s="23">
-        <v>1234.56</v>
-      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+    </row>
+    <row r="21" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+    </row>
+    <row r="22" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A22" s="25"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+    </row>
+    <row r="23" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/src/main/webapp/book/numberFormat.xlsx
+++ b/src/main/webapp/book/numberFormat.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hawk/Documents/workspace/java-client-demo/src/main/webapp/book/demo/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hawk/Documents/workspace/java-client-demo/src/main/webapp/book/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -73,27 +73,28 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="20">
+  <numFmts count="21">
     <numFmt numFmtId="164" formatCode="&quot;NT$&quot;#,##0.00"/>
     <numFmt numFmtId="165" formatCode="_-[$¥-411]* #,##0.00_-;\-[$¥-411]* #,##0.00_-;_-[$¥-411]* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="166" formatCode="0.0%"/>
     <numFmt numFmtId="167" formatCode="[&lt;=9999999]###\-####;\(0#\)\ ###\-####"/>
-    <numFmt numFmtId="169" formatCode="#,##0.00_ ;[Red]\-#,##0.00\ "/>
-    <numFmt numFmtId="170" formatCode="&quot;NT$&quot;#,##0.00;[Red]\-&quot;NT$&quot;#,##0.00"/>
-    <numFmt numFmtId="171" formatCode="#\ ???/???"/>
-    <numFmt numFmtId="172" formatCode="_([$€-2]\ * #,##0.00_);_([$€-2]\ * \(#,##0.00\);_([$€-2]\ * &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="173" formatCode="0.E+00"/>
-    <numFmt numFmtId="174" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-    <numFmt numFmtId="175" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-    <numFmt numFmtId="176" formatCode="h:mm:ss;@"/>
-    <numFmt numFmtId="177" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
-    <numFmt numFmtId="178" formatCode="00000\-0000"/>
-    <numFmt numFmtId="179" formatCode="0.0000E+00"/>
-    <numFmt numFmtId="180" formatCode="[$-409]m/d/yy\ h:mm\ AM/PM;@"/>
-    <numFmt numFmtId="181" formatCode="0.000000%"/>
-    <numFmt numFmtId="182" formatCode="_(&quot;US$&quot;* #,##0.00_);_(&quot;US$&quot;* \(#,##0.00\);_(&quot;US$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="183" formatCode="上午/下午h&quot;時&quot;mm&quot;分&quot;ss&quot;秒&quot;"/>
-    <numFmt numFmtId="186" formatCode="0.000000000000000"/>
+    <numFmt numFmtId="168" formatCode="#,##0.00_ ;[Red]\-#,##0.00\ "/>
+    <numFmt numFmtId="169" formatCode="&quot;NT$&quot;#,##0.00;[Red]\-&quot;NT$&quot;#,##0.00"/>
+    <numFmt numFmtId="170" formatCode="#\ ???/???"/>
+    <numFmt numFmtId="171" formatCode="_([$€-2]\ * #,##0.00_);_([$€-2]\ * \(#,##0.00\);_([$€-2]\ * &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="172" formatCode="0.E+00"/>
+    <numFmt numFmtId="173" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="174" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="175" formatCode="h:mm:ss;@"/>
+    <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="177" formatCode="00000\-0000"/>
+    <numFmt numFmtId="178" formatCode="0.0000E+00"/>
+    <numFmt numFmtId="179" formatCode="[$-409]m/d/yy\ h:mm\ AM/PM;@"/>
+    <numFmt numFmtId="180" formatCode="0.000000%"/>
+    <numFmt numFmtId="181" formatCode="_(&quot;US$&quot;* #,##0.00_);_(&quot;US$&quot;* \(#,##0.00\);_(&quot;US$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="182" formatCode="上午/下午h&quot;時&quot;mm&quot;分&quot;ss&quot;秒&quot;"/>
+    <numFmt numFmtId="183" formatCode="0.000000000000000"/>
+    <numFmt numFmtId="186" formatCode="[DBNum1][$-404]General"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -148,34 +149,36 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="40" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="172" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="171" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="173" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="174" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="175" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="13" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="171" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="173" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="172" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="179" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="180" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="181" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="182" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="183" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="186" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="186" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -488,10 +491,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -499,13 +502,13 @@
     <col min="1" max="1" width="29.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="32" customWidth="1"/>
     <col min="3" max="3" width="30" customWidth="1"/>
-    <col min="4" max="4" width="28.6640625" customWidth="1"/>
+    <col min="4" max="4" width="36.33203125" customWidth="1"/>
     <col min="5" max="5" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.83203125" customWidth="1"/>
     <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -514,7 +517,7 @@
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
     </row>
-    <row r="2" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="26">
         <v>9.1234567890123408</v>
       </c>
@@ -524,9 +527,13 @@
       <c r="C2" s="4">
         <v>-1234.56</v>
       </c>
-      <c r="E2" s="2"/>
-    </row>
-    <row r="3" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="D2" s="28">
+        <v>123456789</v>
+      </c>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+    </row>
+    <row r="3" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -535,7 +542,7 @@
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>1234.56</v>
       </c>
@@ -546,7 +553,7 @@
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -555,7 +562,7 @@
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>1234</v>
       </c>
@@ -568,7 +575,7 @@
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
@@ -577,7 +584,7 @@
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A8" s="9">
         <v>43202</v>
       </c>
@@ -592,7 +599,7 @@
       </c>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
@@ -601,7 +608,7 @@
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
         <v>41376</v>
       </c>
@@ -612,7 +619,7 @@
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>4</v>
       </c>
@@ -621,7 +628,7 @@
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A12" s="14">
         <v>0.1234</v>
       </c>
@@ -632,7 +639,7 @@
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>7</v>
       </c>
@@ -641,7 +648,7 @@
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A14" s="15">
         <v>0.48</v>
       </c>
@@ -652,7 +659,7 @@
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>5</v>
       </c>
@@ -661,7 +668,7 @@
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A16" s="17">
         <v>1000000000</v>
       </c>
